--- a/public/templates/template-import-data-jadwal.xlsx
+++ b/public/templates/template-import-data-jadwal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\si_akademik\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A6B74B4-52A5-4E07-8E94-E41EA4721634}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27CF9CB1-5B34-4C03-92D7-D23677E74B7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="2" r:id="rId1"/>
@@ -440,7 +440,7 @@
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -448,8 +448,8 @@
     <col min="1" max="1" width="4.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.375" bestFit="1" customWidth="1"/>
   </cols>
@@ -465,10 +465,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
